--- a/top10.xlsx
+++ b/top10.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">6,0 </t>
+          <t xml:space="preserve">5,9 </t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">7,2 </t>
+          <t xml:space="preserve">7,1 </t>
         </is>
       </c>
     </row>
@@ -653,12 +653,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2h 2mP</t>
+          <t>2h 2m1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>G-13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
